--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD6D6D0-B308-4DEA-9F6B-4CE6A439EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7001B079-9653-4D33-875D-621846FE660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -3647,17 +3647,17 @@
   <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="2" max="2" width="20.2265625" style="27" customWidth="1"/>
     <col min="3" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="19" style="15" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="14.08984375" customWidth="1"/>
@@ -10555,11 +10555,12 @@
         <v>162</v>
       </c>
       <c r="C184" s="3">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="D184" s="5">
         <v>104325</v>
       </c>
+      <c r="E184" s="5"/>
       <c r="F184" s="5">
         <v>15.8095</v>
       </c>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7001B079-9653-4D33-875D-621846FE660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C5A99-759B-4D9A-91E3-5B7D9D39094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="185">
   <si>
     <t>Company</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>not found in janes</t>
+  </si>
+  <si>
+    <t>Regional</t>
   </si>
 </sst>
 </file>
@@ -3647,8 +3650,8 @@
   <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -4537,7 +4540,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I25" s="15">
         <v>78</v>
@@ -4572,7 +4575,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I26" s="15">
         <v>78</v>
@@ -4607,7 +4610,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I27" s="15">
         <v>78</v>
@@ -4893,7 +4896,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I35" s="15">
         <v>50</v>
@@ -4928,7 +4931,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I36" s="15">
         <v>50</v>
@@ -4963,7 +4966,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I37" s="15">
         <v>50</v>
@@ -5206,7 +5209,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I43" s="15">
         <v>124</v>
@@ -5244,7 +5247,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I44" s="15">
         <v>124</v>
@@ -5282,7 +5285,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I45" s="15">
         <v>124</v>
@@ -5431,7 +5434,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I49" s="15">
         <v>37</v>
@@ -5469,7 +5472,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I50" s="15">
         <v>37</v>
@@ -5507,7 +5510,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I51" s="15">
         <v>50</v>
@@ -5542,7 +5545,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I52" s="15">
         <v>90</v>
@@ -5580,7 +5583,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I53" s="15">
         <v>90</v>
@@ -5618,7 +5621,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I54" s="15">
         <v>90</v>
@@ -5656,7 +5659,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I55" s="15">
         <v>90</v>
@@ -5694,7 +5697,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I56" s="15">
         <v>90</v>
@@ -5846,7 +5849,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I60" s="15">
         <v>44</v>
@@ -5884,7 +5887,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I61" s="15">
         <v>44</v>
@@ -5998,7 +6001,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I64" s="15">
         <v>88</v>
@@ -6037,7 +6040,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I65" s="15">
         <v>88</v>
@@ -6287,7 +6290,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I72" s="15">
         <v>122</v>
@@ -6325,7 +6328,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I73" s="15">
         <v>122</v>
@@ -6363,7 +6366,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I74" s="15">
         <v>122</v>
@@ -6399,7 +6402,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="19" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I75" s="19"/>
       <c r="J75" s="8">
@@ -6694,7 +6697,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I83" s="15">
         <v>30</v>
@@ -6729,7 +6732,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="15" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="I84" s="15">
         <v>34</v>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C5A99-759B-4D9A-91E3-5B7D9D39094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F193D4-3FB0-41B8-91B6-13CBED49455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="186">
   <si>
     <t>Company</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A350-900         </t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3653,8 @@
   <dimension ref="A1:P188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H185" sqref="H185"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -6528,7 +6531,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C79" s="6">
         <v>2015</v>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F193D4-3FB0-41B8-91B6-13CBED49455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0BAC2B-1E6D-407B-BD00-5CBC076ACB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="187">
   <si>
     <t>Company</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve">A350-900         </t>
+  </si>
+  <si>
+    <t>A340-500</t>
   </si>
 </sst>
 </file>
@@ -3650,11 +3653,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
-  <dimension ref="A1:P188"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -6109,7 +6112,7 @@
         <v>63</v>
       </c>
       <c r="C67" s="6">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="D67" s="6">
         <v>73300</v>
@@ -6144,7 +6147,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="6">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="D68" s="6">
         <v>75600</v>
@@ -6179,7 +6182,7 @@
         <v>63</v>
       </c>
       <c r="C69" s="6">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="D69" s="6">
         <v>67000</v>
@@ -10725,6 +10728,23 @@
       </c>
       <c r="P188" s="4" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189" s="3">
+        <v>2002</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M189" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0BAC2B-1E6D-407B-BD00-5CBC076ACB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D70971-5126-426B-AC51-C01D414A897F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="-90" yWindow="-21600" windowWidth="24550" windowHeight="20970" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -3655,9 +3655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D70971-5126-426B-AC51-C01D414A897F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07082852-DCCB-4B8E-BCB2-867C5B958A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21600" windowWidth="24550" windowHeight="20970" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Table'!$A$1:$J$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Data Entry'!$C$1:$C$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Data Entry'!$C$1:$C$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$A$372</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="189">
   <si>
     <t>Company</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>A340-500</t>
+  </si>
+  <si>
+    <t>De Havilland</t>
+  </si>
+  <si>
+    <t>Comet 4</t>
   </si>
 </sst>
 </file>
@@ -3653,11 +3659,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -10747,8 +10753,31 @@
         <v>121</v>
       </c>
     </row>
+    <row r="190" spans="1:16">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1949</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I190">
+        <v>109</v>
+      </c>
+      <c r="J190">
+        <v>34212</v>
+      </c>
+      <c r="M190" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C186" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}"/>
+  <autoFilter ref="C1:C190" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L69" r:id="rId1" xr:uid="{0699F4A1-850B-46FB-A978-0C32824E468D}"/>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07082852-DCCB-4B8E-BCB2-867C5B958A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C982F81-8941-426B-BF77-A9B4457A1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -3663,7 +3663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I191" sqref="I191"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -10761,7 +10761,7 @@
         <v>188</v>
       </c>
       <c r="C190" s="3">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="H190" s="15" t="s">
         <v>138</v>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C982F81-8941-426B-BF77-A9B4457A1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78783719-C680-43C1-A53C-71A5A8E046BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="15360" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="190">
   <si>
     <t>Company</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>Comet 4</t>
+  </si>
+  <si>
+    <t>Comet 1</t>
   </si>
 </sst>
 </file>
@@ -3659,11 +3662,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
-  <dimension ref="A1:P190"/>
+  <dimension ref="A1:P191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -10773,6 +10776,29 @@
         <v>34212</v>
       </c>
       <c r="M190" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1952</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I191">
+        <v>44</v>
+      </c>
+      <c r="J191">
+        <v>31750</v>
+      </c>
+      <c r="M191" t="s">
         <v>121</v>
       </c>
     </row>

--- a/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/test_env/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78783719-C680-43C1-A53C-71A5A8E046BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4DE9A-E8E1-486B-AB06-7D43D2478022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -3665,8 +3665,8 @@
   <dimension ref="A1:P191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
